--- a/xlsx/2002年韩日世界杯_intext.xlsx
+++ b/xlsx/2002年韩日世界杯_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="900">
   <si>
     <t>2002年韩日世界杯</t>
   </si>
@@ -29,7 +29,7 @@
     <t>大韩民国</t>
   </si>
   <si>
-    <t>政策_政策_美國_2002年韩日世界杯</t>
+    <t>政策_政策_美国_2002年韩日世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -47,25 +47,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>巴西國家足球隊</t>
+    <t>巴西国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>德國國家足球隊</t>
+    <t>德国国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>土耳其國家足球隊</t>
+    <t>土耳其国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%B4%8D%E7%88%BE%E5%A4%9A</t>
   </si>
   <si>
-    <t>羅納爾多</t>
+    <t>罗纳尔多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%88%A9%E5%BC%97%C2%B7%E5%8D%A1%E6%81%A9</t>
@@ -77,49 +77,49 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E9%A0%93%C2%B7%E7%95%B6%E5%A5%B4%E9%9B%B2</t>
   </si>
   <si>
-    <t>蘭頓·當奴雲</t>
+    <t>兰顿·当奴云</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%88%E9%96%80%E5%93%A1_(%E8%B6%B3%E7%90%83)</t>
   </si>
   <si>
-    <t>守門員 (足球)</t>
+    <t>守门员 (足球)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1998%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1998年國際足協世界盃</t>
+    <t>1998年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>2006年國際足協世界盃</t>
+    <t>2006年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>國際足協世界盃</t>
+    <t>国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -131,55 +131,52 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%AB%E6%BF%B1</t>
   </si>
   <si>
-    <t>橫濱</t>
+    <t>横滨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>俄羅斯國家足球隊</t>
+    <t>俄罗斯国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1998%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>1998年世界盃足球賽</t>
+    <t>1998年世界杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>法國國家足球隊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>葡萄牙國家足球隊</t>
+    <t>葡萄牙国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>阿根廷國家足球隊</t>
+    <t>阿根廷国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8A%A0%E7%88%BE%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>塞內加爾國家足球隊</t>
+    <t>塞内加尔国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>意大利國家足球隊</t>
+    <t>意大利国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>西班牙國家足球隊</t>
+    <t>西班牙国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E8%92%82</t>
@@ -191,19 +188,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>中國國家足球隊</t>
+    <t>中国国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E7%88%BE%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>厄瓜多爾國家足球隊</t>
+    <t>厄瓜多尔国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9E%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>斯洛文尼亞國家足球隊</t>
+    <t>斯洛文尼亚国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E8%8F%B2%E5%88%A9%E4%BD%A9%C2%B7%E6%96%AF%E7%A7%91%E6%8B%89%E9%87%8C</t>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E9%87%91%E9%9D%B4%E7%8D%8E</t>
   </si>
   <si>
-    <t>世界盃金靴獎</t>
+    <t>世界杯金靴奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2002%E5%B9%B4%E4%B8%96%E7%95%8C%E6%9D%AF%E5%86%B3%E8%B5%9B%E9%98%B6%E6%AE%B5%E7%BB%BC%E8%BF%B0</t>
@@ -245,25 +242,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%88%BE%E5%B8%82</t>
   </si>
   <si>
-    <t>首爾市</t>
+    <t>首尔市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%88%BE%E4%B8%96%E7%95%8C%E7%9B%83%E7%AB%B6%E6%8A%80%E5%A0%B4</t>
   </si>
   <si>
-    <t>首爾世界盃競技場</t>
+    <t>首尔世界杯竞技场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>韓國國家足球隊</t>
+    <t>韩国国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FC%E9%A6%96%E7%88%BE</t>
   </si>
   <si>
-    <t>FC首爾</t>
+    <t>FC首尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E5%B7%9D%E5%B8%82</t>
@@ -275,13 +272,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E5%B7%9D%E6%96%87%E9%B6%B4%E7%AB%B6%E6%8A%80%E5%A0%B4</t>
   </si>
   <si>
-    <t>仁川文鶴競技場</t>
+    <t>仁川文鹤竞技场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E5%B7%9D%E8%81%AFFC</t>
   </si>
   <si>
-    <t>仁川聯FC</t>
+    <t>仁川联FC</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8E%9F%E5%B8%82</t>
@@ -293,13 +290,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8E%9F%E4%B8%96%E7%95%8C%E7%9B%83%E7%AB%B6%E6%8A%80%E5%A0%B4</t>
   </si>
   <si>
-    <t>水原世界盃競技場</t>
+    <t>水原世界杯竞技场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8E%9F%E4%B8%89%E6%98%9F%E8%97%8D%E7%BF%BC</t>
   </si>
   <si>
-    <t>水原三星藍翼</t>
+    <t>水原三星蓝翼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%94%B0%E5%B9%BF%E5%9F%9F%E5%B8%82</t>
@@ -311,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%94%B0%E4%B8%96%E7%95%8C%E7%9B%83%E7%AB%B6%E6%8A%80%E5%A0%B4</t>
   </si>
   <si>
-    <t>大田世界盃競技場</t>
+    <t>大田世界杯竞技场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%94%B0%E5%B8%82%E6%B0%91</t>
@@ -329,13 +326,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%B7%9E%E4%B8%96%E7%95%8C%E7%9B%83%E7%AB%B6%E6%8A%80%E5%A0%B4</t>
   </si>
   <si>
-    <t>全州世界盃競技場</t>
+    <t>全州世界杯竞技场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%8C%97%E7%8F%BE%E4%BB%A3%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>全北現代汽車</t>
+    <t>全北现代汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E5%B7%9E%E5%B8%82</t>
@@ -347,7 +344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E5%B7%9E%E4%B8%96%E7%95%8C%E7%9B%83%E7%AB%B6%E6%8A%80%E5%A0%B4</t>
   </si>
   <si>
-    <t>光州世界盃競技場</t>
+    <t>光州世界杯竞技场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E5%B7%9E%E5%B0%9A%E6%AD%A6%E4%B8%8D%E6%AD%BB%E9%B8%9F</t>
@@ -365,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%82%B1%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>大邱體育場</t>
+    <t>大邱体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FC%E5%A4%A7%E9%82%B1</t>
@@ -383,13 +380,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%94%9A%E5%B1%B1%E6%96%87%E6%AE%8A%E8%B6%B3%E7%90%83%E7%AB%B6%E6%8A%80%E5%A0%B4</t>
   </si>
   <si>
-    <t>蔚山文殊足球競技場</t>
+    <t>蔚山文殊足球竞技场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%9A%E5%B1%B1%E7%8F%BE%E4%BB%A3%E8%80%81%E8%99%8E</t>
   </si>
   <si>
-    <t>蔚山現代老虎</t>
+    <t>蔚山现代老虎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%9C%E5%B1%B1%E5%B8%82</t>
@@ -401,7 +398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%9C%E5%B1%B1%E4%BA%9E%E9%81%8B%E6%9C%83%E4%B8%BB%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>釜山亞運會主體育場</t>
+    <t>釜山亚运会主体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%9C%E5%B1%B1I%27Park</t>
@@ -413,19 +410,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AD%B8%E6%B5%A6%E5%B8%82</t>
   </si>
   <si>
-    <t>西歸浦市</t>
+    <t>西归浦市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%9F%E5%B7%9E%E4%B8%96%E7%95%8C%E7%9B%83%E7%AB%B6%E6%8A%80%E5%A0%B4</t>
   </si>
   <si>
-    <t>濟州世界盃競技場</t>
+    <t>济州世界杯竞技场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%9F%E5%B7%9E%E8%81%AFFC</t>
   </si>
   <si>
-    <t>濟州聯FC</t>
+    <t>济州联FC</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AD%E5%B9%8C%E5%B8%82</t>
@@ -443,19 +440,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AD%E5%B9%8C%E5%B2%A1%E8%96%A9%E5%A4%9A</t>
   </si>
   <si>
-    <t>札幌岡薩多</t>
+    <t>札幌冈萨多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%B5%B7%E9%81%93%E6%97%A5%E6%9C%AC%E7%81%AB%E8%85%BF%E9%AC%A5%E5%A3%AB</t>
   </si>
   <si>
-    <t>北海道日本火腿鬥士</t>
+    <t>北海道日本火腿斗士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AE%E5%9F%8E%E7%B8%A3</t>
   </si>
   <si>
-    <t>宮城縣</t>
+    <t>宫城县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%BA%9C%E7%94%BA</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AE%E5%9F%8E%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>宮城體育場</t>
+    <t>宫城体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%99%E5%8F%B0%E4%B8%83%E5%A4%95</t>
@@ -485,19 +482,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BD%9F%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>新潟體育場</t>
+    <t>新潟体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BD%9F%E5%A4%A9%E9%B5%9D</t>
   </si>
   <si>
-    <t>新潟天鵝</t>
+    <t>新潟天鹅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%A8%E5%9F%8E%E7%B8%A3</t>
   </si>
   <si>
-    <t>茨城縣</t>
+    <t>茨城县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BF%E5%B6%8B%E5%B8%82</t>
@@ -509,13 +506,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8C%A8%E5%9F%8E%E7%B8%A3%E7%AB%8B%E9%B9%BF%E5%B6%8B%E8%B6%B3%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>茨城縣立鹿嶋足球場</t>
+    <t>茨城县立鹿嶋足球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BF%E5%B3%B6%E9%B9%BF%E8%A7%92</t>
   </si>
   <si>
-    <t>鹿島鹿角</t>
+    <t>鹿岛鹿角</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BC%E7%8E%89%E5%B8%82</t>
@@ -527,37 +524,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BC%E7%8E%892002%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>埼玉2002體育場</t>
+    <t>埼玉2002体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%A6%E5%92%8C%E7%B4%85%E9%91%BD</t>
   </si>
   <si>
-    <t>浦和紅鑽</t>
+    <t>浦和红钻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%AB%E6%BF%B1%E5%B8%82</t>
   </si>
   <si>
-    <t>橫濱市</t>
+    <t>横滨市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%AB%E6%BF%B1%E5%9C%8B%E9%9A%9B%E7%B6%9C%E5%90%88%E7%AB%B6%E6%8A%80%E5%A0%B4</t>
   </si>
   <si>
-    <t>橫濱國際綜合競技場</t>
+    <t>横滨国际综合竞技场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%AB%E6%BF%B1%E6%B0%B4%E6%89%8B</t>
   </si>
   <si>
-    <t>橫濱水手</t>
+    <t>横滨水手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9C%E5%B2%A1%E7%B8%A3</t>
   </si>
   <si>
-    <t>靜岡縣</t>
+    <t>静冈县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A2%8B%E4%BA%95%E5%B8%82</t>
@@ -569,13 +566,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9C%E5%B2%A1%E7%B8%A3%E5%B0%8F%E7%AC%A0%E5%B1%B1%E7%B6%9C%E5%90%88%E9%81%8B%E5%8B%95%E5%85%AC%E5%9C%92%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>靜岡縣小笠山綜合運動公園體育場</t>
+    <t>静冈县小笠山综合运动公园体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A3%90%E7%94%B0%E5%B1%B1%E8%91%89</t>
   </si>
   <si>
-    <t>磐田山葉</t>
+    <t>磐田山叶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%B0%B4%E5%BF%83%E8%B7%B3</t>
@@ -587,37 +584,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%98%AA%E5%B8%82</t>
   </si>
   <si>
-    <t>大阪市</t>
+    <t>大坂市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%98%AA%E5%B8%82%E9%95%B7%E5%B1%85%E9%99%B8%E4%B8%8A%E7%AB%B6%E6%8A%80%E5%A0%B4</t>
   </si>
   <si>
-    <t>大阪市長居陸上競技場</t>
+    <t>大坂市长居陆上竞技场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%98%AA%E6%AB%BB%E8%8A%B1</t>
   </si>
   <si>
-    <t>大阪櫻花</t>
+    <t>大坂樱花</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%88%B6%E5%B8%82</t>
   </si>
   <si>
-    <t>神戶市</t>
+    <t>神户市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A1%E5%B4%8E%E5%85%AC%E5%9C%92%E7%90%83%E6%8A%80%E5%A0%B4</t>
   </si>
   <si>
-    <t>御崎公園球技場</t>
+    <t>御崎公园球技场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%88%B6%E5%8B%9D%E5%88%A9%E8%88%B9</t>
   </si>
   <si>
-    <t>神戶勝利船</t>
+    <t>神户胜利船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%88%86%E5%B8%82</t>
@@ -629,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%88%86%E9%AB%94%E8%82%B2%E5%85%AC%E5%9C%92%E7%B6%9C%E5%90%88%E7%AB%B6%E6%8A%80%E5%A0%B4</t>
   </si>
   <si>
-    <t>大分體育公園綜合競技場</t>
+    <t>大分体育公园综合竞技场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%88%86%E4%B8%89%E7%A5%9E</t>
@@ -641,13 +638,13 @@
     <t>https://zh.wikipedia.org/wiki/2002%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>2002年世界盃外圍賽</t>
+    <t>2002年世界杯外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>比利時國家足球隊</t>
+    <t>比利时国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A%E5%9B%BD%E5%AE%B6%E8%B6%B3%E7%90%83%E9%98%9F</t>
@@ -659,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>丹麥國家足球隊</t>
+    <t>丹麦国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0%E5%9B%BD%E5%AE%B6%E8%B6%B3%E7%90%83%E9%98%9F</t>
@@ -671,49 +668,46 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>愛爾蘭國家足球隊</t>
+    <t>爱尔兰国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>義大利國家足球隊</t>
+    <t>义大利国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>波蘭國家足球隊</t>
+    <t>波兰国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9A%E5%9B%BD%E5%AE%B6%E8%B6%B3%E7%90%83%E9%98%9F</t>
   </si>
   <si>
-    <t>斯洛文尼亚国家足球队</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>瑞典國家足球隊</t>
+    <t>瑞典国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯國家足球隊</t>
+    <t>沙乌地阿拉伯国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>厄瓜多國家足球隊</t>
+    <t>厄瓜多国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>巴拉圭國家足球隊</t>
+    <t>巴拉圭国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E5%9B%BD%E5%AE%B6%E8%B6%B3%E7%90%83%E9%98%9F</t>
@@ -725,37 +719,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A5%E9%9A%86%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>喀麥隆國家足球隊</t>
+    <t>喀麦隆国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>奈及利亞國家足球隊</t>
+    <t>奈及利亚国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>南非國家足球隊</t>
+    <t>南非国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>突尼西亞國家足球隊</t>
+    <t>突尼西亚国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E5%A4%A7%E9%BB%8E%E5%8A%A0%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>哥斯大黎加國家足球隊</t>
+    <t>哥斯大黎加国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國家足球隊</t>
+    <t>美国国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2002%E5%B9%B4%E4%B8%96%E7%95%8C%E6%9D%AF%E8%B6%B3%E7%90%83%E8%B5%9B%E5%8F%82%E8%B5%9B%E5%90%8D%E5%8D%95</t>
@@ -767,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD</t>
   </si>
   <si>
-    <t>烏拉圭</t>
+    <t>乌拉圭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%B8%95%C2%B7%E5%8D%9A%E5%B7%B4%C2%B7%E8%BF%AA%E5%A5%A5%E6%99%AE</t>
@@ -779,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%9F%8E</t>
   </si>
   <si>
-    <t>漢城</t>
+    <t>汉城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%9F%8E%E4%B8%96%E7%95%8C%E6%9D%AF%E4%BD%93%E8%82%B2%E5%9C%BA</t>
@@ -797,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E9%85%8B%E9%95%B7%E5%9C%8B%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>阿拉伯聯合酋長國足球協會</t>
+    <t>阿拉伯联合酋长国足球协会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dar%C3%ADo_Rodr%C3%ADguez</t>
@@ -827,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>科威特足球協會</t>
+    <t>科威特足球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%9A%E7%82%B9%E7%90%83</t>
@@ -851,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%82%B1%E4%B8%96%E7%95%8C%E7%9B%83%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>大邱世界盃體育場</t>
+    <t>大邱世界杯体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%B4%9B%E6%96%AF%C2%B7%E5%B7%B4%E7%89%B9%E9%9B%B7%E6%96%AF</t>
@@ -863,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A6%AC%E6%8B%89%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>危地馬拉國家足球協會</t>
+    <t>危地马拉国家足球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%9C%E5%B1%B1</t>
@@ -875,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%9C%E5%B1%B1%E4%BA%9E%E9%81%8B%E6%9C%83%E4%B8%BB%E7%AB%B6%E6%8A%80%E5%A0%B4</t>
   </si>
   <si>
-    <t>釜山亞運會主競技場</t>
+    <t>釜山亚运会主竞技场</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Felipe_Ramos</t>
@@ -899,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E5%B7%9D%E9%96%80%E9%B6%B4%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>仁川門鶴體育場</t>
+    <t>仁川门鹤体育场</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/V%C3%ADtor_Melo_Pereira</t>
@@ -923,13 +917,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E4%BA%9E%E5%93%A5%C2%B7%E4%BD%9B%E8%98%AD</t>
   </si>
   <si>
-    <t>迪亞哥·佛蘭</t>
+    <t>迪亚哥·佛兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E7%93%A6%E7%BE%85%C2%B7%E9%9B%B7%E7%A7%91%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿爾瓦羅·雷科巴</t>
+    <t>阿尔瓦罗·雷科巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8E%9F</t>
@@ -947,13 +941,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E8%8D%B7%E8%98%AD%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>皇家荷蘭足球協會</t>
+    <t>皇家荷兰足球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%85%8B%C2%B7%E8%81%96%E5%85%8B%E9%AD%AF%E6%96%AF</t>
   </si>
   <si>
-    <t>羅克·聖克魯斯</t>
+    <t>罗克·圣克鲁斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E8%A5%BF%E6%96%AF%E7%A7%91%C2%B7%E9%98%BF%E5%B0%94%E5%A1%9E</t>
@@ -977,13 +971,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%8D%9A%E6%96%AF%C2%B7%E7%B1%B3%E6%B5%B7%E7%88%BE</t>
   </si>
   <si>
-    <t>盧博斯·米海爾</t>
+    <t>卢博斯·米海尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>斯洛伐克足球協會</t>
+    <t>斯洛伐克足球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%B0%94%C2%B7%E5%86%88%E8%90%A8%E9%9B%B7%E6%96%AF%C2%B7%E5%B8%83%E5%85%B0%E7%A7%91</t>
@@ -995,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%AE%89%C2%B7%E5%8D%A1%E6%B4%9B%E6%96%AF%C2%B7%E8%B2%9D%E8%90%8A%E9%9A%86</t>
   </si>
   <si>
-    <t>胡安·卡洛斯·貝萊隆</t>
+    <t>胡安·卡洛斯·贝莱隆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%C2%B7%E8%80%B6%E7%BD%97</t>
@@ -1025,13 +1019,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5%E7%9A%87%E5%AE%B6%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>摩洛哥皇家足球協會</t>
+    <t>摩洛哥皇家足球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E8%98%AD%E5%BA%A6%C2%B7%E6%91%A9%E9%80%A3%E8%BF%AA%E6%96%AF</t>
   </si>
   <si>
-    <t>費蘭度·摩連迪斯</t>
+    <t>费兰度·摩连迪斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%8E%B1%E6%96%AF%C2%B7%E6%99%AE%E7%BA%A6%E5%B0%94</t>
@@ -1043,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E9%BE%8D%E7%90%83</t>
   </si>
   <si>
-    <t>烏龍球</t>
+    <t>乌龙球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%B7%9E</t>
@@ -1055,7 +1049,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%B7%9E%E4%B8%96%E7%95%8C%E7%9B%83%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>全州世界盃體育場</t>
+    <t>全州世界杯体育场</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gamal_Al-Ghandour</t>
@@ -1067,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>埃及足球協會</t>
+    <t>埃及足球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E9%82%A6%E5%8A%A0%C2%B7%E8%AF%BA%E5%A7%86%E7%BB%B4%E7%89%B9</t>
@@ -1091,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%8D%A1%E6%96%AF%C2%B7%E6%8B%89%E8%BF%AA%E6%AF%94</t>
   </si>
   <si>
-    <t>盧卡斯·拉迪比</t>
+    <t>卢卡斯·拉迪比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%96%E5%85%B9%E5%8D%A1%C2%B7%E9%97%A8%E8%BF%AD%E5%A1%94</t>
@@ -1133,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%9F%E5%B7%9E%E5%B3%B6</t>
   </si>
   <si>
-    <t>濟州島</t>
+    <t>济州岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E5%A4%A7%E9%BB%8E%E5%8A%A0</t>
@@ -1145,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E8%8F%AF%E5%BA%A6</t>
   </si>
   <si>
-    <t>李華度</t>
+    <t>李华度</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hasan_%C5%9Ea%C5%9F</t>
@@ -1163,13 +1157,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%B4%8D%E5%BE%B7%C2%B7%E9%AB%98%E6%A2%85%E8%8C%B2</t>
   </si>
   <si>
-    <t>羅納德·高梅茲</t>
+    <t>罗纳德·高梅兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E9%87%8C%E6%96%AF%E5%A5%A7%C2%B7%E8%83%A1%E7%A6%AE</t>
   </si>
   <si>
-    <t>梅里斯奧·胡禮</t>
+    <t>梅里斯奥·胡礼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kyros_Vassaras</t>
@@ -1181,13 +1175,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%B6%B3%E7%90%83%E7%B8%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>希臘足球總會</t>
+    <t>希腊足球总会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%B2%9D%E6%89%98%C2%B7%E5%8D%A1%E6%B4%9B%E6%96%AF</t>
   </si>
   <si>
-    <t>羅貝托·卡洛斯</t>
+    <t>罗贝托·卡洛斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%BA%B3%E5%B0%94%E8%BF%AA%E5%B0%BC%E5%A5%A5</t>
@@ -1223,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%AF%A7%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>貝寧足球協會</t>
+    <t>贝宁足球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BD%97%C2%B7%E4%B8%87%E4%B9%94%E6%99%AE</t>
@@ -1235,7 +1229,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%B4%8D%E5%BA%A6</t>
   </si>
   <si>
-    <t>羅納度</t>
+    <t>罗纳度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E7%B1%B3%E5%B0%94%E6%A3%AE</t>
@@ -1265,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E5%8D%A1%C2%B7%E9%AD%AF%E4%BC%8A%E6%96%AF</t>
   </si>
   <si>
-    <t>奧斯卡·魯伊斯</t>
+    <t>奥斯卡·鲁伊斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E8%B6%B3%E7%90%83%E5%8D%8F%E4%BC%9A</t>
@@ -1277,7 +1271,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9F%93</t>
   </si>
   <si>
-    <t>南韓</t>
+    <t>南韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E5%96%84%E6%B4%AA</t>
@@ -1289,15 +1283,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B3%E7%9B%B8%E9%90%B5</t>
   </si>
   <si>
-    <t>柳相鐵</t>
+    <t>柳相铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E5%8D%A1%C2%B7%E9%B2%81%E4%BC%8A%E6%96%AF</t>
   </si>
   <si>
-    <t>奥斯卡·鲁伊斯</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/John_O%27Brien_(soccer)</t>
   </si>
   <si>
@@ -1331,7 +1322,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%B2%9E%E6%A1%93</t>
   </si>
   <si>
-    <t>安貞桓</t>
+    <t>安贞桓</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Clint_Mathis</t>
@@ -1349,7 +1340,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>瑞士足球協會</t>
+    <t>瑞士足球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%8E%B1%E5%A1%94</t>
@@ -1373,7 +1364,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>蘇格蘭足球協會</t>
+    <t>苏格兰足球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B4%E6%99%BA%E6%98%9F</t>
@@ -1421,7 +1412,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E7%89%B9%E6%AD%B7%C2%B7%E9%BA%A5%E4%BF%9D%E9%A6%AC</t>
   </si>
   <si>
-    <t>柏特歷·麥保馬</t>
+    <t>柏特历·麦保马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BD%9F</t>
@@ -1433,25 +1424,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BD%9F%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>新潟球場</t>
+    <t>新潟球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B7%9D%E5%BE%B9</t>
   </si>
   <si>
-    <t>上川徹</t>
+    <t>上川彻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%BE%85%E6%96%AF%E6%8B%89%E5%A4%AB%C2%B7%E5%85%8B%E6%B4%9B%E6%BE%A4</t>
   </si>
   <si>
-    <t>米羅斯拉夫·克洛澤</t>
+    <t>米罗斯拉夫·克洛泽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%A4%8F%E5%9F%83%E7%88%BE%C2%B7%E5%B7%B4%E6%8B%89%E5%85%8B</t>
   </si>
   <si>
-    <t>米夏埃爾·巴拉克</t>
+    <t>米夏埃尔·巴拉克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E6%BB%95%C2%B7%E6%89%AC%E5%85%8B%E5%B0%94</t>
@@ -1463,19 +1454,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E9%A6%AC%E5%A3%AB%C2%B7%E9%80%A3%E5%9F%BA</t>
   </si>
   <si>
-    <t>湯馬士·連基</t>
+    <t>汤马士·连基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%88%A9%E4%BD%9B%C2%B7%E6%AF%94%E4%BA%9E%E8%8D%B7%E5%A4%AB</t>
   </si>
   <si>
-    <t>奧利佛·比亞荷夫</t>
+    <t>奥利佛·比亚荷夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E6%81%A9%E5%BE%B7%C2%B7%E6%96%BD%E5%A5%88%E5%BE%B7</t>
   </si>
   <si>
-    <t>貝恩德·施奈德</t>
+    <t>贝恩德·施奈德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AD%E5%B9%8C</t>
@@ -1487,7 +1478,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AD%E5%B9%8C%E5%9C%93%E9%A0%82%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>札幌圓頂球場</t>
+    <t>札幌圆顶球场</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ubaldo_Aquino</t>
@@ -1499,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%AF%94%C2%B7%E5%9F%BA%E6%81%A9</t>
   </si>
   <si>
-    <t>羅比·基恩</t>
+    <t>罗比·基恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%A8%E5%9F%8E</t>
@@ -1517,13 +1508,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>丹麥足球協會</t>
+    <t>丹麦足球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%B9%86%E5%9F%83%E7%88%BE%C2%B7%E8%89%BE%E6%89%98%E5%A5%A7</t>
   </si>
   <si>
-    <t>薩繆埃爾·艾托奧</t>
+    <t>萨缪埃尔·艾托奥</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Terje_Hauge</t>
@@ -1535,7 +1526,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>挪威足球協會</t>
+    <t>挪威足球协会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Marco_Bode</t>
@@ -1547,13 +1538,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9C%E5%B2%A1</t>
   </si>
   <si>
-    <t>靜岡</t>
+    <t>静冈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9C%E5%B2%A1%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>靜岡體育場</t>
+    <t>静冈体育场</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Antonio_L%C3%B3pez_Nieto</t>
@@ -1571,7 +1562,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%B1%B3%E6%81%A9%C2%B7%E9%81%94%E5%A4%AB</t>
   </si>
   <si>
-    <t>達米恩·達夫</t>
+    <t>达米恩·达夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%AA%E6%BB%A8%E5%9B%BD%E9%99%85%E4%BD%93%E8%82%B2%E5%9C%BA</t>
@@ -1589,19 +1580,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B3%B6%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>福島戰爭</t>
+    <t>福岛战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>英格蘭</t>
+    <t>英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%BF%AA%E6%96%AF%E5%9C%96%E9%81%94</t>
   </si>
   <si>
-    <t>巴迪斯圖達</t>
+    <t>巴迪斯图达</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gilles_Veissi%C3%A8re</t>
@@ -1619,7 +1610,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E6%8B%89%E6%96%AF%C2%B7%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%BE%B7%E6%A3%AE</t>
   </si>
   <si>
-    <t>尼古拉斯·亞歷山德森</t>
+    <t>尼古拉斯·亚历山德森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%B4%9B%E6%96%AF%C2%B7%E6%AC%A7%E8%B5%AB%E5%B0%BC%E5%A5%A5%C2%B7%E8%A5%BF%E8%92%99</t>
@@ -1643,13 +1634,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%88%B6</t>
   </si>
   <si>
-    <t>神戶</t>
+    <t>神户</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%88%B6%E9%A3%9B%E7%BF%BC%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>神戶飛翼體育場</t>
+    <t>神户飞翼体育场</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ren%C3%A9_Ortube</t>
@@ -1667,7 +1658,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E7%A2%A7%E5%92%B8</t>
   </si>
   <si>
-    <t>大衛·碧咸</t>
+    <t>大卫·碧咸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%80%B6%E8%B7%AF%E6%98%93%E5%90%89%C2%B7%E7%A7%91%E5%88%A9%E7%BA%B3</t>
@@ -1679,13 +1670,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%B6%B3%E7%90%83%E7%B8%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>意大利足球總會</t>
+    <t>意大利足球总会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%94%E6%96%AF%C2%B7%E5%8F%B2%E9%9B%B2%E9%81%9C</t>
   </si>
   <si>
-    <t>安達斯·史雲遜</t>
+    <t>安达斯·史云逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%B0%94%E5%8D%97%C2%B7%E5%85%8B%E9%9B%B7%E6%96%AF%E6%B3%A2</t>
@@ -1697,13 +1688,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AE%E5%9F%8E</t>
   </si>
   <si>
-    <t>宮城</t>
+    <t>宫城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%98%AA</t>
   </si>
   <si>
-    <t>大阪</t>
+    <t>大坂</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Brian_Hall_(referee)</t>
@@ -1715,19 +1706,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>美國足球協會</t>
+    <t>美国足球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>克羅埃西亞</t>
+    <t>克罗埃西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%A5%A7%E7%89%B9%E8%8E%AB%E5%85%8B%C2%B7%E7%99%BD%E8%98%AD%E9%AB%98</t>
   </si>
   <si>
-    <t>庫奧特莫克·白蘭高</t>
+    <t>库奥特莫克·白兰高</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E8%92%82%E5%AE%89%C2%B7%E7%BB%B4%E8%80%B6%E9%87%8C</t>
@@ -1781,7 +1772,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E6%96%AF%E8%B6%B3%E7%90%83%E7%B8%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>突尼斯足球總會</t>
+    <t>突尼斯足球总会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%BE%B7%E7%BD%97%C2%B7%E5%BE%B7%E5%B0%94%C2%B7%E7%9A%AE%E8%80%B6%E7%BD%97</t>
@@ -1799,7 +1790,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%88%86%E5%A4%A7%E7%9C%BC%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>大分大眼體育場</t>
+    <t>大分大眼体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E8%BF%AA%E6%A3%AE%C2%B7%E9%97%A8%E5%BE%B7%E6%96%AF</t>
@@ -1829,7 +1820,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%C2%B7%E5%A8%81%E7%88%BE%E8%8E%AB%E8%8C%A8</t>
   </si>
   <si>
-    <t>馬克·威爾莫茨</t>
+    <t>马克·威尔莫茨</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Peter_Van_Der_Heyden</t>
@@ -1859,7 +1850,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>牙買加足球協會</t>
+    <t>牙买加足球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%BA%93%E6%96%AF%C2%B7%E9%BB%98%E5%85%8B</t>
@@ -1871,7 +1862,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%B6%B3%E7%90%83%E7%B8%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>德國足球總會</t>
+    <t>德国足球总会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Raouf_Bouzaiene</t>
@@ -1889,19 +1880,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>澳大利亞足球協會</t>
+    <t>澳大利亚足球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E5%B3%B6%E5%AF%AC%E6%99%83</t>
   </si>
   <si>
-    <t>森島寬晃</t>
+    <t>森岛宽晃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%94%B0%E8%8B%B1%E5%A3%BD</t>
   </si>
   <si>
-    <t>中田英壽</t>
+    <t>中田英寿</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Johan_Walem</t>
@@ -1925,7 +1916,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E7%B1%B3%E7%89%B9%E9%87%8C%C2%B7%E7%91%9F%E5%96%AC%E5%A4%AB</t>
   </si>
   <si>
-    <t>德米特里·瑟喬夫</t>
+    <t>德米特里·瑟乔夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%8E%E5%B7%9E</t>
@@ -1937,27 +1928,24 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%88%BE</t>
   </si>
   <si>
-    <t>首爾</t>
+    <t>首尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E5%B0%84%E5%8D%81%E4%BA%8C%E7%A2%BC</t>
   </si>
   <si>
-    <t>互射十二碼</t>
+    <t>互射十二码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%99%82%E8%B3%BD</t>
   </si>
   <si>
-    <t>加時賽</t>
+    <t>加时赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%88%B7</t>
   </si>
   <si>
-    <t>神户</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%88%A9%E5%BC%97%C2%B7%E8%AF%BA%E4%BC%8A%E7%BB%B4%E5%B0%94</t>
   </si>
   <si>
@@ -1967,7 +1955,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%A5%A7%C2%B7%E8%B2%BB%E8%BF%AA%E5%8D%97</t>
   </si>
   <si>
-    <t>里奧·費迪南</t>
+    <t>里奥·费迪南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E5%85%8B%E5%B0%94%C2%B7%E6%AC%A7%E6%96%87</t>
@@ -1991,21 +1979,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%88%86%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>大分球場</t>
+    <t>大分球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E9%80%A3%E8%BF%AA%E6%96%AF</t>
   </si>
   <si>
-    <t>摩連迪斯</t>
+    <t>摩连迪斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%AF%94%C2%B7%E5%9F%BA%E6%81%A9</t>
   </si>
   <si>
-    <t>罗比·基恩</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E6%9F%A5</t>
   </si>
   <si>
@@ -2045,7 +2030,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%80%AB</t>
   </si>
   <si>
-    <t>芬倫</t>
+    <t>芬伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E7%99%BB%C2%B7%E5%A4%9A%E8%AF%BA%E4%B8%87</t>
@@ -2063,7 +2048,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%9B%E7%90%A6%E9%89%89</t>
   </si>
   <si>
-    <t>薛琦鉉</t>
+    <t>薛琦铉</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Byron_Moreno</t>
@@ -2075,31 +2060,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%96%87</t>
   </si>
   <si>
-    <t>歐文</t>
+    <t>欧文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%93%A6%E7%88%BE%E5%A4%9A</t>
   </si>
   <si>
-    <t>里瓦爾多</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%A4%8F%E5%9F%83%E5%B0%94%C2%B7%E5%B7%B4%E6%8B%89%E5%85%8B</t>
   </si>
   <si>
-    <t>米夏埃尔·巴拉克</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%B6%AD</t>
   </si>
   <si>
-    <t>哈維</t>
+    <t>哈维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E9%87%91</t>
   </si>
   <si>
-    <t>華金</t>
+    <t>华金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E6%98%8E%E7%94%AB</t>
@@ -2111,7 +2090,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%BC%A2%C2%B7%E6%96%87%E6%96%AF</t>
   </si>
   <si>
-    <t>伊漢·文斯</t>
+    <t>伊汉·文斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lee_Eul-Yong</t>
@@ -2123,7 +2102,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E9%8D%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>宋鍾國</t>
+    <t>宋锺国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%9D%8E%C2%B7%E8%8B%8F%E5%85%8B</t>
@@ -2141,21 +2120,18 @@
     <t>https://zh.wikipedia.org/wiki/2002%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E6%B1%BA%E8%B3%BD</t>
   </si>
   <si>
-    <t>2002年國際足協世界盃決賽</t>
+    <t>2002年国际足协世界杯决赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%AB%E6%BF%B1%E5%9C%8B%E9%9A%9B%E7%B8%BD%E5%90%88%E7%AB%B6%E6%8A%80%E5%A0%B4</t>
   </si>
   <si>
-    <t>橫濱國際總合競技場</t>
+    <t>横滨国际总合竞技场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%9D%AF%E9%87%91%E9%9D%B4%E5%A5%96</t>
   </si>
   <si>
-    <t>世界杯金靴奖</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%9D%AF%E9%87%91%E7%90%83%E5%A5%96</t>
   </si>
   <si>
@@ -2165,7 +2141,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E9%9B%85%E8%BE%9B%E7%8D%8E</t>
   </si>
   <si>
-    <t>世界盃雅辛獎</t>
+    <t>世界杯雅辛奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%B4%9B%E6%B3%BD</t>
@@ -2177,7 +2153,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E9%A6%AC%E8%87%A3</t>
   </si>
   <si>
-    <t>湯馬臣</t>
+    <t>汤马臣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E8%92%82%E5%AE%89%C2%B7%E7%BB%B4%E5%9F%83%E9%87%8C</t>
@@ -2189,25 +2165,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%80%E5%B0%87</t>
   </si>
   <si>
-    <t>門將</t>
+    <t>门将</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E5%B0%BC</t>
   </si>
   <si>
-    <t>簡尼</t>
+    <t>简尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E6%96%AF%E5%9C%96%C2%B7%E9%9B%B7%E8%8C%A8%E8%B2%9D%E7%88%BE</t>
   </si>
   <si>
-    <t>魯斯圖·雷茨貝爾</t>
+    <t>鲁斯图·雷茨贝尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E8%A1%9B_(%E8%B6%B3%E7%90%83)</t>
   </si>
   <si>
-    <t>後衛 (足球)</t>
+    <t>后卫 (足球)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E6%89%98%C2%B7%E5%8D%A1%E6%B4%9B%E6%96%AF</t>
@@ -2225,7 +2201,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A0%B4</t>
   </si>
   <si>
-    <t>中場</t>
+    <t>中场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8A%B3%E8%BF%AA%E5%A5%A5%C2%B7%E9%9B%B7%E7%BA%B3</t>
@@ -2237,7 +2213,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E9%8B%92_(%E8%B6%B3%E7%90%83)</t>
   </si>
   <si>
-    <t>前鋒 (足球)</t>
+    <t>前锋 (足球)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%BD%97%E6%96%AF%E6%8B%89%E5%A4%AB%C2%B7%E5%85%8B%E6%B4%9B%E6%96%AF</t>
@@ -2249,13 +2225,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE-%E5%93%88%E7%A9%8D%C2%B7%E8%BF%AA%E5%A5%A7%E5%A4%AB</t>
   </si>
   <si>
-    <t>艾爾-哈積·迪奧夫</t>
+    <t>艾尔-哈积·迪奥夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%BF%AA%E9%81%94</t>
   </si>
   <si>
-    <t>愛迪達</t>
+    <t>爱迪达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E5%A8%81%E5%95%A4%E9%85%92</t>
@@ -2273,7 +2249,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AE%AE%E4%BA%AC%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>鮮京電信</t>
+    <t>鲜京电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SK%E7%94%B5%E4%BF%A1</t>
@@ -2297,7 +2273,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E5%88%A9%E6%B5%A6</t>
   </si>
   <si>
-    <t>飛利浦</t>
+    <t>飞利浦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E4%BA%9A</t>
@@ -2309,19 +2285,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%8F%A3%E5%8F%AF%E6%A8%82</t>
   </si>
   <si>
-    <t>可口可樂</t>
+    <t>可口可乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E8%BB%9F%E7%89%87</t>
   </si>
   <si>
-    <t>富士軟片</t>
+    <t>富士软片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>現代集團</t>
+    <t>现代集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NTT</t>
@@ -2333,13 +2309,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%95%B6%E5%8B%9E</t>
   </si>
   <si>
-    <t>麥當勞</t>
+    <t>麦当劳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%8A%9D</t>
   </si>
   <si>
-    <t>東芝</t>
+    <t>东芝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E8%99%8E</t>
@@ -2357,7 +2333,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%AB%94%E8%82%B2</t>
   </si>
   <si>
-    <t>日本體育</t>
+    <t>日本体育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83%E5%9C%A3%E6%AD%8C</t>
@@ -2369,291 +2345,288 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:2002%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E6%B1%BA%E8%B3%BD%E5%9C%88</t>
   </si>
   <si>
-    <t>Template talk-2002年世界盃足球賽決賽圈</t>
+    <t>Template talk-2002年世界杯足球赛决赛圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2002%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>2002年世界盃足球賽</t>
+    <t>2002年世界杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1930%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1930年國際足協世界盃</t>
+    <t>1930年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1934%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1934年國際足協世界盃</t>
+    <t>1934年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1938%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1938年國際足協世界盃</t>
+    <t>1938年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1950%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1950年國際足協世界盃</t>
+    <t>1950年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1954%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1954年國際足協世界盃</t>
+    <t>1954年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1958%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1958年國際足協世界盃</t>
+    <t>1958年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1962%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1962年國際足協世界盃</t>
+    <t>1962年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1966%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1966年國際足協世界盃</t>
+    <t>1966年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1970%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1970年國際足協世界盃</t>
+    <t>1970年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1974%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1974年國際足協世界盃</t>
+    <t>1974年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1978%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1978年國際足協世界盃</t>
+    <t>1978年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1982%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1982年國際足協世界盃</t>
+    <t>1982年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1986%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1986年國際足協世界盃</t>
+    <t>1986年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1990%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1990年國際足協世界盃</t>
+    <t>1990年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1994%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1994年國際足協世界盃</t>
+    <t>1994年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>2010年國際足協世界盃</t>
+    <t>2010年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>2014年國際足協世界盃</t>
+    <t>2014年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2018%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>2018年國際足協世界盃</t>
+    <t>2018年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2022%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>2022年國際足協世界盃</t>
+    <t>2022年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2026%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>2026年國際足協世界盃</t>
+    <t>2026年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2030%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>2030年國際足協世界盃</t>
+    <t>2030年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>國際足協世界盃外圍賽</t>
+    <t>国际足协世界杯外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1934%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>1934年國際足協世界盃外圍賽</t>
+    <t>1934年国际足协世界杯外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1954%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>1954年國際足協世界盃外圍賽</t>
+    <t>1954年国际足协世界杯外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1962%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>1962年國際足協世界盃外圍賽</t>
+    <t>1962年国际足协世界杯外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1986%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>1986年國際足協世界盃外圍賽</t>
+    <t>1986年国际足协世界杯外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1990%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>1990年國際足協世界盃外圍賽</t>
+    <t>1990年国际足协世界杯外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1994%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>1994年國際足協世界盃外圍賽</t>
+    <t>1994年国际足协世界杯外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2002%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>2002年國際足協世界盃外圍賽</t>
+    <t>2002年国际足协世界杯外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>2006年國際足協世界盃外圍賽</t>
+    <t>2006年国际足协世界杯外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>2010年國際足協世界盃外圍賽</t>
+    <t>2010年国际足协世界杯外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>2014年國際足協世界盃外圍賽</t>
+    <t>2014年国际足协世界杯外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2018%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>2018年國際足協世界盃外圍賽</t>
+    <t>2018年国际足协世界杯外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%9D%AF%E8%B6%B3%E7%90%83%E8%B3%BD%E6%B1%BA%E8%B3%BD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界杯足球賽決賽列表</t>
+    <t>世界杯足球赛决赛列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1930%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E6%B1%BA%E8%B3%BD</t>
   </si>
   <si>
-    <t>1930年國際足協世界盃決賽</t>
+    <t>1930年国际足协世界杯决赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1938%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E6%B1%BA%E8%B3%BD</t>
   </si>
   <si>
-    <t>1938年國際足協世界盃決賽</t>
+    <t>1938年国际足协世界杯决赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD%E5%B0%8D%E5%B7%B4%E8%A5%BF_(1950%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83)</t>
   </si>
   <si>
-    <t>烏拉圭對巴西 (1950年國際足協世界盃)</t>
+    <t>乌拉圭对巴西 (1950年国际足协世界杯)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1958%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E6%B1%BA%E8%B3%BD</t>
   </si>
   <si>
-    <t>1958年國際足協世界盃決賽</t>
+    <t>1958年国际足协世界杯决赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1966%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E6%B1%BA%E8%B3%BD</t>
   </si>
   <si>
-    <t>1966年國際足協世界盃決賽</t>
+    <t>1966年国际足协世界杯决赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1970%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E6%B1%BA%E8%B3%BD</t>
   </si>
   <si>
-    <t>1970年國際足協世界盃決賽</t>
+    <t>1970年国际足协世界杯决赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1974%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E6%B1%BA%E8%B3%BD</t>
   </si>
   <si>
-    <t>1974年國際足協世界盃決賽</t>
+    <t>1974年国际足协世界杯决赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1978%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E6%B1%BA%E8%B3%BD</t>
   </si>
   <si>
-    <t>1978年國際足協世界盃決賽</t>
+    <t>1978年国际足协世界杯决赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1982%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E6%B1%BA%E8%B3%BD</t>
   </si>
   <si>
-    <t>1982年國際足協世界盃決賽</t>
+    <t>1982年国际足协世界杯决赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E6%A6%AE%E8%AD%BD</t>
   </si>
   <si>
-    <t>世界盃榮譽</t>
+    <t>世界杯荣誉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E9%87%91%E6%89%8B%E5%A5%97%E7%8D%8E</t>
   </si>
   <si>
-    <t>世界盃金手套獎</t>
+    <t>世界杯金手套奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E9%87%91%E7%90%83%E7%8D%8E</t>
   </si>
   <si>
-    <t>世界盃金球獎</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%9D%AF%E6%9C%80%E4%BD%B3%E5%B9%B4%E9%9D%92%E7%90%83%E5%91%98</t>
   </si>
   <si>
@@ -2663,37 +2636,34 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E6%8C%87%E5%AE%9A%E7%94%A8%E7%90%83</t>
   </si>
   <si>
-    <t>世界盃指定用球</t>
+    <t>世界杯指定用球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E6%B1%BA%E8%B3%BD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界盃足球賽決賽列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E7%8D%8E%E7%9B%83</t>
   </si>
   <si>
-    <t>國際足協世界盃獎盃</t>
+    <t>国际足协世界杯奖杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E7%B4%80%E9%8C%84</t>
   </si>
   <si>
-    <t>世界盃足球賽紀錄</t>
+    <t>世界杯足球赛纪录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E4%B8%BB%E8%BE%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>世界盃足球賽主辦國</t>
+    <t>世界杯足球赛主办国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E5%90%89%E7%A5%A5%E7%89%A9</t>
   </si>
   <si>
-    <t>世界盃吉祥物</t>
+    <t>世界杯吉祥物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%9D%AF%E8%B6%B3%E7%90%83%E8%B5%9B%E4%B8%BB%E9%A2%98%E6%9B%B2</t>
@@ -2705,7 +2675,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E5%85%A5%E7%90%83%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界盃足球賽入球列表</t>
+    <t>世界杯足球赛入球列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%9D%AF%E6%A2%A6%E5%B9%BB%E9%98%B5%E5%AE%B9</t>
@@ -2717,13 +2687,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E6%B1%BA%E8%B3%BD%E9%80%B1%E5%8F%83%E8%B3%BD%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>世界盃足球賽決賽週參賽球隊</t>
+    <t>世界杯足球赛决赛周参赛球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3724,7 +3694,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
         <v>5</v>
@@ -3750,10 +3720,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>14</v>
@@ -3779,10 +3749,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>14</v>
@@ -3808,10 +3778,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>7</v>
@@ -3837,10 +3807,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -3866,10 +3836,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -3895,10 +3865,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -3924,10 +3894,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>12</v>
@@ -3953,10 +3923,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -3982,10 +3952,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -4011,10 +3981,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -4040,10 +4010,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -4069,10 +4039,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -4098,10 +4068,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -4127,10 +4097,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>12</v>
@@ -4156,10 +4126,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>18</v>
@@ -4185,10 +4155,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -4214,10 +4184,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -4243,10 +4213,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -4272,10 +4242,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -4301,10 +4271,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -4330,10 +4300,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -4359,10 +4329,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -4388,10 +4358,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -4417,10 +4387,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>6</v>
@@ -4446,10 +4416,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -4475,10 +4445,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -4504,10 +4474,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -4533,10 +4503,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -4562,10 +4532,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4591,10 +4561,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -4620,10 +4590,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4649,10 +4619,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4678,10 +4648,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>5</v>
@@ -4707,10 +4677,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4736,10 +4706,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4765,10 +4735,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4794,10 +4764,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4823,10 +4793,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4852,10 +4822,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -4881,10 +4851,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4910,10 +4880,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4939,10 +4909,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -4968,10 +4938,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4997,10 +4967,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -5026,10 +4996,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>5</v>
@@ -5055,10 +5025,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -5084,10 +5054,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -5113,10 +5083,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -5142,10 +5112,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -5171,10 +5141,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5200,10 +5170,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5229,10 +5199,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -5258,10 +5228,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>5</v>
@@ -5287,10 +5257,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5316,10 +5286,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5345,10 +5315,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -5374,10 +5344,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5403,10 +5373,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -5432,10 +5402,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5461,10 +5431,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5490,10 +5460,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5519,10 +5489,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5548,10 +5518,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>6</v>
@@ -5577,10 +5547,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5606,10 +5576,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5635,10 +5605,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5664,10 +5634,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5693,10 +5663,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -5722,10 +5692,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5751,10 +5721,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5780,10 +5750,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5809,10 +5779,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5838,10 +5808,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -5867,10 +5837,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5896,10 +5866,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5925,10 +5895,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5954,10 +5924,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5983,10 +5953,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -6012,10 +5982,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6041,10 +6011,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6070,10 +6040,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6099,10 +6069,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6128,10 +6098,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>15</v>
@@ -6157,10 +6127,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>9</v>
@@ -6186,10 +6156,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>15</v>
@@ -6215,10 +6185,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>17</v>
@@ -6244,10 +6214,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>12</v>
@@ -6273,10 +6243,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>13</v>
@@ -6302,10 +6272,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>11</v>
@@ -6331,10 +6301,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>52</v>
+      </c>
+      <c r="F112" t="s">
         <v>53</v>
-      </c>
-      <c r="F112" t="s">
-        <v>54</v>
       </c>
       <c r="G112" t="n">
         <v>24</v>
@@ -6360,10 +6330,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>61</v>
       </c>
       <c r="G113" t="n">
         <v>10</v>
@@ -6389,10 +6359,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>16</v>
@@ -6418,10 +6388,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>9</v>
@@ -6447,10 +6417,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>11</v>
@@ -6476,10 +6446,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>15</v>
@@ -6505,10 +6475,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>10</v>
@@ -6534,10 +6504,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>9</v>
@@ -6563,10 +6533,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>11</v>
@@ -6592,10 +6562,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>12</v>
@@ -6621,10 +6591,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>48</v>
+      </c>
+      <c r="F122" t="s">
         <v>49</v>
-      </c>
-      <c r="F122" t="s">
-        <v>50</v>
       </c>
       <c r="G122" t="n">
         <v>16</v>
@@ -6650,10 +6620,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>11</v>
@@ -6679,10 +6649,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>11</v>
@@ -6708,10 +6678,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>17</v>
@@ -6737,10 +6707,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6766,10 +6736,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>4</v>
@@ -6795,10 +6765,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>3</v>
@@ -6824,10 +6794,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>7</v>
@@ -6853,10 +6823,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6882,10 +6852,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -6911,10 +6881,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6940,10 +6910,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6969,10 +6939,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -6998,10 +6968,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>10</v>
@@ -7027,10 +6997,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>120</v>
+      </c>
+      <c r="F136" t="s">
         <v>121</v>
-      </c>
-      <c r="F136" t="s">
-        <v>122</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -7056,10 +7026,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -7085,10 +7055,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -7114,10 +7084,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>12</v>
@@ -7143,10 +7113,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7172,10 +7142,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>13</v>
@@ -7201,10 +7171,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>4</v>
@@ -7230,10 +7200,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7259,10 +7229,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -7288,10 +7258,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>10</v>
@@ -7317,10 +7287,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -7346,10 +7316,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -7375,10 +7345,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7404,10 +7374,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>10</v>
@@ -7433,10 +7403,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -7462,10 +7432,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -7491,10 +7461,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7520,10 +7490,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -7549,10 +7519,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7578,10 +7548,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7607,10 +7577,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>12</v>
@@ -7636,10 +7606,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7665,10 +7635,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7694,10 +7664,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7723,10 +7693,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7752,10 +7722,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7781,10 +7751,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7810,10 +7780,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7839,10 +7809,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7868,10 +7838,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -7897,10 +7867,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7926,10 +7896,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -7955,10 +7925,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7984,10 +7954,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G169" t="n">
         <v>10</v>
@@ -8013,10 +7983,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8042,10 +8012,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8071,10 +8041,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8100,10 +8070,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8129,10 +8099,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -8158,10 +8128,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G175" t="n">
         <v>9</v>
@@ -8187,10 +8157,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -8216,10 +8186,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -8245,10 +8215,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G178" t="n">
         <v>3</v>
@@ -8274,10 +8244,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8303,10 +8273,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -8332,10 +8302,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8361,10 +8331,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8390,10 +8360,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8419,10 +8389,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G184" t="n">
         <v>9</v>
@@ -8448,10 +8418,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -8477,10 +8447,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8506,10 +8476,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8535,10 +8505,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8564,10 +8534,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -8593,10 +8563,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8622,10 +8592,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>3</v>
@@ -8651,10 +8621,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G192" t="n">
         <v>4</v>
@@ -8680,10 +8650,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8709,10 +8679,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -8738,10 +8708,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8767,10 +8737,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8796,10 +8766,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8825,10 +8795,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F198" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8854,10 +8824,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G199" t="n">
         <v>3</v>
@@ -8883,10 +8853,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F200" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8912,10 +8882,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8941,10 +8911,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8970,10 +8940,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F203" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8999,10 +8969,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F204" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9028,10 +8998,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F205" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9057,10 +9027,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F206" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -9086,10 +9056,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F207" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9115,10 +9085,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F208" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9144,10 +9114,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F209" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9173,10 +9143,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F210" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -9202,10 +9172,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F211" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9231,10 +9201,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F212" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G212" t="n">
         <v>3</v>
@@ -9260,10 +9230,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F213" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G213" t="n">
         <v>4</v>
@@ -9289,10 +9259,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F214" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -9318,10 +9288,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F215" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9347,10 +9317,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F216" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9376,10 +9346,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F217" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9405,10 +9375,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F218" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9434,10 +9404,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F219" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9463,10 +9433,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F220" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9492,10 +9462,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F221" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9521,10 +9491,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F222" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G222" t="n">
         <v>3</v>
@@ -9550,10 +9520,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F223" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9579,10 +9549,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F224" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9608,10 +9578,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F225" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G225" t="n">
         <v>3</v>
@@ -9637,10 +9607,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F226" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -9666,10 +9636,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F227" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9695,10 +9665,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F228" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -9724,10 +9694,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F229" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -9753,10 +9723,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F230" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -9782,10 +9752,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F231" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9811,10 +9781,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F232" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9840,10 +9810,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F233" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9898,10 +9868,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F235" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9927,10 +9897,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F236" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -9956,10 +9926,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F237" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9985,10 +9955,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10014,10 +9984,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F239" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G239" t="n">
         <v>10</v>
@@ -10043,10 +10013,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G240" t="n">
         <v>3</v>
@@ -10072,10 +10042,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F241" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10101,10 +10071,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F242" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10130,10 +10100,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10159,10 +10129,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10188,10 +10158,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10217,10 +10187,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10246,10 +10216,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F247" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10275,10 +10245,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F248" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G248" t="n">
         <v>10</v>
@@ -10304,10 +10274,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G249" t="n">
         <v>3</v>
@@ -10333,10 +10303,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -10362,10 +10332,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F251" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -10391,10 +10361,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -10420,10 +10390,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G253" t="n">
         <v>9</v>
@@ -10449,10 +10419,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G254" t="n">
         <v>3</v>
@@ -10478,10 +10448,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -10507,10 +10477,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10536,10 +10506,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10565,10 +10535,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10594,10 +10564,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10623,10 +10593,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G260" t="n">
         <v>9</v>
@@ -10652,10 +10622,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G261" t="n">
         <v>4</v>
@@ -10681,10 +10651,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10710,10 +10680,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F263" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10739,10 +10709,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F264" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10768,10 +10738,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G265" t="n">
         <v>3</v>
@@ -10797,10 +10767,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F266" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10826,10 +10796,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F267" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10855,10 +10825,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F268" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10884,10 +10854,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F269" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10913,10 +10883,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -10942,10 +10912,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10971,10 +10941,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F272" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11000,10 +10970,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F273" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -11029,10 +10999,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F274" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11058,10 +11028,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F275" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11087,10 +11057,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F276" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G276" t="n">
         <v>8</v>
@@ -11116,10 +11086,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F277" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G277" t="n">
         <v>4</v>
@@ -11145,10 +11115,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F278" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11174,10 +11144,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F279" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11203,10 +11173,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F280" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11232,10 +11202,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F281" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G281" t="n">
         <v>3</v>
@@ -11261,10 +11231,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F282" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G282" t="n">
         <v>12</v>
@@ -11290,10 +11260,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F283" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11319,10 +11289,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F284" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11348,10 +11318,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F285" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G285" t="n">
         <v>8</v>
@@ -11377,10 +11347,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F286" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G286" t="n">
         <v>10</v>
@@ -11406,10 +11376,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F287" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -11435,10 +11405,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F288" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G288" t="n">
         <v>4</v>
@@ -11464,10 +11434,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F289" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11493,10 +11463,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F290" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11522,10 +11492,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F291" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11551,10 +11521,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F292" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G292" t="n">
         <v>3</v>
@@ -11580,10 +11550,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F293" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11609,10 +11579,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F294" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -11638,10 +11608,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F295" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11667,10 +11637,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F296" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11696,10 +11666,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F297" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11725,10 +11695,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F298" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11754,10 +11724,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F299" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11783,10 +11753,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F300" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11812,10 +11782,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F301" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11841,10 +11811,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F302" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G302" t="n">
         <v>10</v>
@@ -11870,10 +11840,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F303" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -11899,10 +11869,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F304" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11928,10 +11898,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F305" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -11957,10 +11927,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F306" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11986,10 +11956,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F307" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G307" t="n">
         <v>2</v>
@@ -12015,10 +11985,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F308" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G308" t="n">
         <v>4</v>
@@ -12044,10 +12014,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F309" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12073,10 +12043,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F310" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12102,10 +12072,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F311" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -12131,10 +12101,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F312" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -12160,10 +12130,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F313" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -12189,10 +12159,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F314" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12218,10 +12188,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F315" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G315" t="n">
         <v>3</v>
@@ -12247,10 +12217,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F316" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12276,10 +12246,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F317" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12305,10 +12275,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F318" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12334,10 +12304,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F319" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12363,10 +12333,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F320" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12392,10 +12362,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F321" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12421,10 +12391,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F322" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -12450,10 +12420,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F323" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12479,10 +12449,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F324" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12508,10 +12478,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F325" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12537,10 +12507,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F326" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G326" t="n">
         <v>3</v>
@@ -12566,10 +12536,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F327" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G327" t="n">
         <v>143</v>
@@ -12595,10 +12565,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F328" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G328" t="n">
         <v>9</v>
@@ -12624,10 +12594,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F329" t="s">
-        <v>646</v>
+        <v>539</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12653,10 +12623,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F330" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12682,10 +12652,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F331" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12711,10 +12681,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F332" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -12740,10 +12710,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F333" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12769,10 +12739,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F334" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12798,10 +12768,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F335" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12827,10 +12797,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F336" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G336" t="n">
         <v>2</v>
@@ -12856,10 +12826,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F337" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G337" t="n">
         <v>6</v>
@@ -12885,10 +12855,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F338" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -12914,10 +12884,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F339" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12943,10 +12913,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F340" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12972,10 +12942,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F341" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G341" t="n">
         <v>2</v>
@@ -13001,10 +12971,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F342" t="s">
-        <v>662</v>
+        <v>491</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -13030,10 +13000,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F343" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G343" t="n">
         <v>3</v>
@@ -13059,10 +13029,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F344" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -13088,10 +13058,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F345" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -13117,10 +13087,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F346" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13146,10 +13116,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F347" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13175,10 +13145,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F348" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13204,10 +13174,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F349" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13233,10 +13203,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F350" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13262,10 +13232,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F351" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13291,10 +13261,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F352" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13320,10 +13290,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F353" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -13349,10 +13319,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F354" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13378,10 +13348,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F355" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13407,10 +13377,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F356" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G356" t="n">
         <v>3</v>
@@ -13436,10 +13406,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F357" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -13465,10 +13435,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
+        <v>96</v>
+      </c>
+      <c r="F358" t="s">
         <v>97</v>
-      </c>
-      <c r="F358" t="s">
-        <v>98</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13494,10 +13464,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F359" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13523,10 +13493,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F360" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13552,10 +13522,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F361" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13581,10 +13551,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F362" t="s">
-        <v>690</v>
+        <v>475</v>
       </c>
       <c r="G362" t="n">
         <v>4</v>
@@ -13610,10 +13580,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="F363" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13639,10 +13609,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F364" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13668,10 +13638,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="F365" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13697,10 +13667,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="F366" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="G366" t="n">
         <v>3</v>
@@ -13726,10 +13696,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
+        <v>190</v>
+      </c>
+      <c r="F367" t="s">
         <v>191</v>
-      </c>
-      <c r="F367" t="s">
-        <v>192</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13755,10 +13725,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F368" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="G368" t="n">
         <v>2</v>
@@ -13784,10 +13754,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="F369" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13813,10 +13783,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="F370" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13842,10 +13812,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F371" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13871,10 +13841,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F372" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13900,10 +13870,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="F373" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13929,10 +13899,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F374" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13958,10 +13928,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F375" t="s">
-        <v>712</v>
+        <v>67</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13987,10 +13957,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F376" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14016,10 +13986,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="F377" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14045,10 +14015,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="F378" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14074,10 +14044,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F379" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14103,10 +14073,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="F380" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14132,10 +14102,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F381" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14161,10 +14131,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="F382" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="G382" t="n">
         <v>2</v>
@@ -14190,10 +14160,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="F383" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="G383" t="n">
         <v>5</v>
@@ -14219,10 +14189,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="F384" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14248,10 +14218,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="F385" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="G385" t="n">
         <v>4</v>
@@ -14277,10 +14247,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="F386" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="G386" t="n">
         <v>6</v>
@@ -14306,10 +14276,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F387" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14335,10 +14305,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="F388" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14364,10 +14334,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F389" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="G389" t="n">
         <v>4</v>
@@ -14393,10 +14363,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="F390" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14422,10 +14392,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F391" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G391" t="n">
         <v>5</v>
@@ -14451,10 +14421,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="F392" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14480,10 +14450,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="F393" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14509,10 +14479,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="F394" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14538,10 +14508,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="F395" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14567,10 +14537,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="F396" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14596,10 +14566,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="F397" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14625,10 +14595,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="F398" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14654,10 +14624,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="F399" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14683,10 +14653,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="F400" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14712,10 +14682,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="F401" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14741,10 +14711,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="F402" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14770,10 +14740,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="F403" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14799,10 +14769,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="F404" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14828,10 +14798,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="F405" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14857,10 +14827,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="F406" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14886,10 +14856,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="F407" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14915,10 +14885,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="F408" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14944,10 +14914,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="F409" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14973,10 +14943,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="F410" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15002,10 +14972,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="F411" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15031,10 +15001,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="F412" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15060,10 +15030,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="F413" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="G413" t="n">
         <v>4</v>
@@ -15089,10 +15059,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F414" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15118,10 +15088,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F415" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15147,10 +15117,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F416" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15176,10 +15146,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="F417" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15205,10 +15175,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F418" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15234,10 +15204,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F419" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15263,10 +15233,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="F420" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15292,10 +15262,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="F421" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15321,10 +15291,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F422" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15350,10 +15320,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="F423" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15379,10 +15349,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="F424" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15408,10 +15378,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="F425" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15437,10 +15407,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="F426" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15466,10 +15436,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="F427" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15495,10 +15465,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="F428" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15524,10 +15494,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="F429" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15611,10 +15581,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="F432" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15640,10 +15610,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="F433" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15669,10 +15639,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="F434" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15698,10 +15668,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="F435" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15727,10 +15697,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="F436" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15756,10 +15726,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="F437" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15785,10 +15755,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="F438" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="G438" t="n">
         <v>2</v>
@@ -15814,10 +15784,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="F439" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="G439" t="n">
         <v>4</v>
@@ -15843,10 +15813,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="F440" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="G440" t="n">
         <v>4</v>
@@ -15872,10 +15842,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="F441" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="G441" t="n">
         <v>4</v>
@@ -15901,10 +15871,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="F442" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="G442" t="n">
         <v>4</v>
@@ -15930,10 +15900,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="F443" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="G443" t="n">
         <v>4</v>
@@ -15959,10 +15929,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="F444" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="G444" t="n">
         <v>4</v>
@@ -15988,10 +15958,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="F445" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="G445" t="n">
         <v>94</v>
@@ -16017,10 +15987,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="F446" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="G446" t="n">
         <v>4</v>
@@ -16046,10 +16016,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="F447" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="G447" t="n">
         <v>4</v>
@@ -16075,10 +16045,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="F448" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="G448" t="n">
         <v>4</v>
@@ -16104,10 +16074,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="F449" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="G449" t="n">
         <v>4</v>
@@ -16133,10 +16103,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="F450" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="G450" t="n">
         <v>23</v>
@@ -16162,10 +16132,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="F451" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="G451" t="n">
         <v>6</v>
@@ -16191,10 +16161,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="F452" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="G452" t="n">
         <v>4</v>
@@ -16220,10 +16190,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="F453" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="G453" t="n">
         <v>5</v>
@@ -16249,10 +16219,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="F454" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="G454" t="n">
         <v>4</v>
@@ -16278,10 +16248,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="F455" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="G455" t="n">
         <v>4</v>
@@ -16307,10 +16277,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="F456" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="G456" t="n">
         <v>4</v>
@@ -16336,10 +16306,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="F457" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="G457" t="n">
         <v>4</v>
@@ -16365,10 +16335,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="F458" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="G458" t="n">
         <v>4</v>
@@ -16394,10 +16364,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="F459" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="G459" t="n">
         <v>4</v>
@@ -16423,10 +16393,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="F460" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16452,10 +16422,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F461" t="s">
-        <v>712</v>
+        <v>67</v>
       </c>
       <c r="G461" t="n">
         <v>2</v>
@@ -16481,10 +16451,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="F462" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16510,10 +16480,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="F463" t="s">
-        <v>878</v>
+        <v>706</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16539,10 +16509,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="F464" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16568,10 +16538,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="F465" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16597,10 +16567,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="F466" t="s">
-        <v>884</v>
+        <v>846</v>
       </c>
       <c r="G466" t="n">
         <v>4</v>
@@ -16626,10 +16596,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="F467" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16655,10 +16625,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="F468" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="G468" t="n">
         <v>2</v>
@@ -16684,10 +16654,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="F469" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="G469" t="n">
         <v>4</v>
@@ -16713,10 +16683,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="F470" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16742,10 +16712,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="F471" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16771,10 +16741,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="F472" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -16800,10 +16770,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="F473" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -16829,10 +16799,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="F474" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="G474" t="n">
         <v>2</v>
@@ -16858,10 +16828,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="F475" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="G475" t="n">
         <v>3</v>
@@ -16887,10 +16857,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="F476" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -16916,10 +16886,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="F477" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -16945,10 +16915,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="F478" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="G478" t="n">
         <v>7</v>
@@ -16974,10 +16944,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="F479" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
